--- a/Results/BeatAML/SpliceJunction/NormalizedExpression/BeatAML.WT1.chr11-32396364-G-T.MUT.xlsx
+++ b/Results/BeatAML/SpliceJunction/NormalizedExpression/BeatAML.WT1.chr11-32396364-G-T.MUT.xlsx
@@ -47,13 +47,13 @@
     <t xml:space="preserve">VAF_RNA</t>
   </si>
   <si>
-    <t xml:space="preserve">Normalized_CanonEx2_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normalized_CanonEx3_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normalized_ES3</t>
+    <t xml:space="preserve">Normalized_CanonEx6_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normalized_CanonEx7_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normalized_ES7</t>
   </si>
   <si>
     <t xml:space="preserve">MuTect2_filter</t>
